--- a/DATA/Telecom_Service_Quality_Rwanda_2023_2025.xlsx
+++ b/DATA/Telecom_Service_Quality_Rwanda_2023_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auguc\Documents\GitHub\project DSCI  COHORT1\DATASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auguc\Documents\GitHub\project DSCI  COHORT1\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,514 +81,514 @@
     <t>Data_Usage_MB</t>
   </si>
   <si>
+    <t>Airtel Rwanda</t>
+  </si>
+  <si>
+    <t>MTN Rwanda</t>
+  </si>
+  <si>
+    <t>Kicukiro</t>
+  </si>
+  <si>
+    <t>Gasabo</t>
+  </si>
+  <si>
+    <t>Nyarugenge</t>
+  </si>
+  <si>
+    <t>Rwamagana</t>
+  </si>
+  <si>
+    <t>Rubavu</t>
+  </si>
+  <si>
+    <t>Huye</t>
+  </si>
+  <si>
+    <t>Musanze</t>
+  </si>
+  <si>
+    <t>CELL_0001</t>
+  </si>
+  <si>
+    <t>CELL_0002</t>
+  </si>
+  <si>
+    <t>CELL_0003</t>
+  </si>
+  <si>
+    <t>CELL_0004</t>
+  </si>
+  <si>
+    <t>CELL_0005</t>
+  </si>
+  <si>
+    <t>CELL_0006</t>
+  </si>
+  <si>
+    <t>CELL_0007</t>
+  </si>
+  <si>
+    <t>CELL_0008</t>
+  </si>
+  <si>
+    <t>CELL_0009</t>
+  </si>
+  <si>
+    <t>CELL_0010</t>
+  </si>
+  <si>
+    <t>CELL_0011</t>
+  </si>
+  <si>
+    <t>CELL_0012</t>
+  </si>
+  <si>
+    <t>CELL_0013</t>
+  </si>
+  <si>
+    <t>CELL_0014</t>
+  </si>
+  <si>
+    <t>CELL_0015</t>
+  </si>
+  <si>
+    <t>CELL_0016</t>
+  </si>
+  <si>
+    <t>CELL_0017</t>
+  </si>
+  <si>
+    <t>CELL_0018</t>
+  </si>
+  <si>
+    <t>CELL_0019</t>
+  </si>
+  <si>
+    <t>CELL_0020</t>
+  </si>
+  <si>
+    <t>CELL_0021</t>
+  </si>
+  <si>
+    <t>CELL_0022</t>
+  </si>
+  <si>
+    <t>CELL_0023</t>
+  </si>
+  <si>
+    <t>CELL_0024</t>
+  </si>
+  <si>
+    <t>CELL_0025</t>
+  </si>
+  <si>
+    <t>CELL_0026</t>
+  </si>
+  <si>
+    <t>CELL_0027</t>
+  </si>
+  <si>
+    <t>CELL_0028</t>
+  </si>
+  <si>
+    <t>CELL_0029</t>
+  </si>
+  <si>
+    <t>CELL_0030</t>
+  </si>
+  <si>
+    <t>CELL_0031</t>
+  </si>
+  <si>
+    <t>CELL_0032</t>
+  </si>
+  <si>
+    <t>CELL_0033</t>
+  </si>
+  <si>
+    <t>CELL_0034</t>
+  </si>
+  <si>
+    <t>CELL_0035</t>
+  </si>
+  <si>
+    <t>CELL_0036</t>
+  </si>
+  <si>
+    <t>CELL_0037</t>
+  </si>
+  <si>
+    <t>CELL_0038</t>
+  </si>
+  <si>
+    <t>CELL_0039</t>
+  </si>
+  <si>
+    <t>CELL_0040</t>
+  </si>
+  <si>
+    <t>CELL_0041</t>
+  </si>
+  <si>
+    <t>CELL_0042</t>
+  </si>
+  <si>
+    <t>CELL_0043</t>
+  </si>
+  <si>
+    <t>CELL_0044</t>
+  </si>
+  <si>
+    <t>CELL_0045</t>
+  </si>
+  <si>
+    <t>CELL_0046</t>
+  </si>
+  <si>
+    <t>CELL_0047</t>
+  </si>
+  <si>
+    <t>CELL_0048</t>
+  </si>
+  <si>
+    <t>CELL_0049</t>
+  </si>
+  <si>
+    <t>CELL_0050</t>
+  </si>
+  <si>
+    <t>CELL_0051</t>
+  </si>
+  <si>
+    <t>CELL_0052</t>
+  </si>
+  <si>
+    <t>CELL_0053</t>
+  </si>
+  <si>
+    <t>CELL_0054</t>
+  </si>
+  <si>
+    <t>CELL_0055</t>
+  </si>
+  <si>
+    <t>CELL_0056</t>
+  </si>
+  <si>
+    <t>CELL_0057</t>
+  </si>
+  <si>
+    <t>CELL_0058</t>
+  </si>
+  <si>
+    <t>CELL_0059</t>
+  </si>
+  <si>
+    <t>CELL_0060</t>
+  </si>
+  <si>
+    <t>CELL_0061</t>
+  </si>
+  <si>
+    <t>CELL_0062</t>
+  </si>
+  <si>
+    <t>CELL_0063</t>
+  </si>
+  <si>
+    <t>CELL_0064</t>
+  </si>
+  <si>
+    <t>CELL_0065</t>
+  </si>
+  <si>
+    <t>CELL_0066</t>
+  </si>
+  <si>
+    <t>CELL_0067</t>
+  </si>
+  <si>
+    <t>CELL_0068</t>
+  </si>
+  <si>
+    <t>CELL_0069</t>
+  </si>
+  <si>
+    <t>CELL_0070</t>
+  </si>
+  <si>
+    <t>CELL_0071</t>
+  </si>
+  <si>
+    <t>CELL_0072</t>
+  </si>
+  <si>
+    <t>CELL_0073</t>
+  </si>
+  <si>
+    <t>CELL_0074</t>
+  </si>
+  <si>
+    <t>CELL_0075</t>
+  </si>
+  <si>
+    <t>CELL_0076</t>
+  </si>
+  <si>
+    <t>CELL_0077</t>
+  </si>
+  <si>
+    <t>CELL_0078</t>
+  </si>
+  <si>
+    <t>CELL_0079</t>
+  </si>
+  <si>
+    <t>CELL_0080</t>
+  </si>
+  <si>
+    <t>CELL_0081</t>
+  </si>
+  <si>
+    <t>CELL_0082</t>
+  </si>
+  <si>
+    <t>CELL_0083</t>
+  </si>
+  <si>
+    <t>CELL_0084</t>
+  </si>
+  <si>
+    <t>CELL_0085</t>
+  </si>
+  <si>
+    <t>CELL_0086</t>
+  </si>
+  <si>
+    <t>CELL_0087</t>
+  </si>
+  <si>
+    <t>CELL_0088</t>
+  </si>
+  <si>
+    <t>CELL_0089</t>
+  </si>
+  <si>
+    <t>CELL_0090</t>
+  </si>
+  <si>
+    <t>CELL_0091</t>
+  </si>
+  <si>
+    <t>CELL_0092</t>
+  </si>
+  <si>
+    <t>CELL_0093</t>
+  </si>
+  <si>
+    <t>CELL_0094</t>
+  </si>
+  <si>
+    <t>CELL_0095</t>
+  </si>
+  <si>
+    <t>CELL_0096</t>
+  </si>
+  <si>
+    <t>CELL_0097</t>
+  </si>
+  <si>
+    <t>CELL_0098</t>
+  </si>
+  <si>
+    <t>CELL_0099</t>
+  </si>
+  <si>
+    <t>CELL_0100</t>
+  </si>
+  <si>
+    <t>CELL_0101</t>
+  </si>
+  <si>
+    <t>CELL_0102</t>
+  </si>
+  <si>
+    <t>CELL_0103</t>
+  </si>
+  <si>
+    <t>CELL_0104</t>
+  </si>
+  <si>
+    <t>CELL_0105</t>
+  </si>
+  <si>
+    <t>CELL_0106</t>
+  </si>
+  <si>
+    <t>CELL_0107</t>
+  </si>
+  <si>
+    <t>CELL_0108</t>
+  </si>
+  <si>
+    <t>CELL_0109</t>
+  </si>
+  <si>
+    <t>CELL_0110</t>
+  </si>
+  <si>
+    <t>CELL_0111</t>
+  </si>
+  <si>
+    <t>CELL_0112</t>
+  </si>
+  <si>
+    <t>CELL_0113</t>
+  </si>
+  <si>
+    <t>CELL_0114</t>
+  </si>
+  <si>
+    <t>CELL_0115</t>
+  </si>
+  <si>
+    <t>CELL_0116</t>
+  </si>
+  <si>
+    <t>CELL_0117</t>
+  </si>
+  <si>
+    <t>CELL_0118</t>
+  </si>
+  <si>
+    <t>CELL_0119</t>
+  </si>
+  <si>
+    <t>CELL_0120</t>
+  </si>
+  <si>
+    <t>CELL_0121</t>
+  </si>
+  <si>
+    <t>CELL_0122</t>
+  </si>
+  <si>
+    <t>CELL_0123</t>
+  </si>
+  <si>
+    <t>CELL_0124</t>
+  </si>
+  <si>
+    <t>CELL_0125</t>
+  </si>
+  <si>
+    <t>CELL_0126</t>
+  </si>
+  <si>
+    <t>CELL_0127</t>
+  </si>
+  <si>
+    <t>CELL_0128</t>
+  </si>
+  <si>
+    <t>CELL_0129</t>
+  </si>
+  <si>
+    <t>CELL_0130</t>
+  </si>
+  <si>
+    <t>CELL_0131</t>
+  </si>
+  <si>
+    <t>CELL_0132</t>
+  </si>
+  <si>
+    <t>CELL_0133</t>
+  </si>
+  <si>
+    <t>CELL_0134</t>
+  </si>
+  <si>
+    <t>CELL_0135</t>
+  </si>
+  <si>
+    <t>CELL_0136</t>
+  </si>
+  <si>
+    <t>CELL_0137</t>
+  </si>
+  <si>
+    <t>CELL_0138</t>
+  </si>
+  <si>
+    <t>CELL_0139</t>
+  </si>
+  <si>
+    <t>CELL_0140</t>
+  </si>
+  <si>
+    <t>CELL_0141</t>
+  </si>
+  <si>
+    <t>CELL_0142</t>
+  </si>
+  <si>
+    <t>CELL_0143</t>
+  </si>
+  <si>
+    <t>CELL_0144</t>
+  </si>
+  <si>
+    <t>CELL_0145</t>
+  </si>
+  <si>
+    <t>CELL_0146</t>
+  </si>
+  <si>
+    <t>CELL_0147</t>
+  </si>
+  <si>
+    <t>CELL_0148</t>
+  </si>
+  <si>
+    <t>CELL_0149</t>
+  </si>
+  <si>
+    <t>CELL_0150</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Suburban</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Dissatisfied</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Satisfaction_Label</t>
-  </si>
-  <si>
-    <t>Airtel Rwanda</t>
-  </si>
-  <si>
-    <t>MTN Rwanda</t>
-  </si>
-  <si>
-    <t>Kicukiro</t>
-  </si>
-  <si>
-    <t>Gasabo</t>
-  </si>
-  <si>
-    <t>Nyarugenge</t>
-  </si>
-  <si>
-    <t>Rwamagana</t>
-  </si>
-  <si>
-    <t>Rubavu</t>
-  </si>
-  <si>
-    <t>Huye</t>
-  </si>
-  <si>
-    <t>Musanze</t>
-  </si>
-  <si>
-    <t>CELL_0001</t>
-  </si>
-  <si>
-    <t>CELL_0002</t>
-  </si>
-  <si>
-    <t>CELL_0003</t>
-  </si>
-  <si>
-    <t>CELL_0004</t>
-  </si>
-  <si>
-    <t>CELL_0005</t>
-  </si>
-  <si>
-    <t>CELL_0006</t>
-  </si>
-  <si>
-    <t>CELL_0007</t>
-  </si>
-  <si>
-    <t>CELL_0008</t>
-  </si>
-  <si>
-    <t>CELL_0009</t>
-  </si>
-  <si>
-    <t>CELL_0010</t>
-  </si>
-  <si>
-    <t>CELL_0011</t>
-  </si>
-  <si>
-    <t>CELL_0012</t>
-  </si>
-  <si>
-    <t>CELL_0013</t>
-  </si>
-  <si>
-    <t>CELL_0014</t>
-  </si>
-  <si>
-    <t>CELL_0015</t>
-  </si>
-  <si>
-    <t>CELL_0016</t>
-  </si>
-  <si>
-    <t>CELL_0017</t>
-  </si>
-  <si>
-    <t>CELL_0018</t>
-  </si>
-  <si>
-    <t>CELL_0019</t>
-  </si>
-  <si>
-    <t>CELL_0020</t>
-  </si>
-  <si>
-    <t>CELL_0021</t>
-  </si>
-  <si>
-    <t>CELL_0022</t>
-  </si>
-  <si>
-    <t>CELL_0023</t>
-  </si>
-  <si>
-    <t>CELL_0024</t>
-  </si>
-  <si>
-    <t>CELL_0025</t>
-  </si>
-  <si>
-    <t>CELL_0026</t>
-  </si>
-  <si>
-    <t>CELL_0027</t>
-  </si>
-  <si>
-    <t>CELL_0028</t>
-  </si>
-  <si>
-    <t>CELL_0029</t>
-  </si>
-  <si>
-    <t>CELL_0030</t>
-  </si>
-  <si>
-    <t>CELL_0031</t>
-  </si>
-  <si>
-    <t>CELL_0032</t>
-  </si>
-  <si>
-    <t>CELL_0033</t>
-  </si>
-  <si>
-    <t>CELL_0034</t>
-  </si>
-  <si>
-    <t>CELL_0035</t>
-  </si>
-  <si>
-    <t>CELL_0036</t>
-  </si>
-  <si>
-    <t>CELL_0037</t>
-  </si>
-  <si>
-    <t>CELL_0038</t>
-  </si>
-  <si>
-    <t>CELL_0039</t>
-  </si>
-  <si>
-    <t>CELL_0040</t>
-  </si>
-  <si>
-    <t>CELL_0041</t>
-  </si>
-  <si>
-    <t>CELL_0042</t>
-  </si>
-  <si>
-    <t>CELL_0043</t>
-  </si>
-  <si>
-    <t>CELL_0044</t>
-  </si>
-  <si>
-    <t>CELL_0045</t>
-  </si>
-  <si>
-    <t>CELL_0046</t>
-  </si>
-  <si>
-    <t>CELL_0047</t>
-  </si>
-  <si>
-    <t>CELL_0048</t>
-  </si>
-  <si>
-    <t>CELL_0049</t>
-  </si>
-  <si>
-    <t>CELL_0050</t>
-  </si>
-  <si>
-    <t>CELL_0051</t>
-  </si>
-  <si>
-    <t>CELL_0052</t>
-  </si>
-  <si>
-    <t>CELL_0053</t>
-  </si>
-  <si>
-    <t>CELL_0054</t>
-  </si>
-  <si>
-    <t>CELL_0055</t>
-  </si>
-  <si>
-    <t>CELL_0056</t>
-  </si>
-  <si>
-    <t>CELL_0057</t>
-  </si>
-  <si>
-    <t>CELL_0058</t>
-  </si>
-  <si>
-    <t>CELL_0059</t>
-  </si>
-  <si>
-    <t>CELL_0060</t>
-  </si>
-  <si>
-    <t>CELL_0061</t>
-  </si>
-  <si>
-    <t>CELL_0062</t>
-  </si>
-  <si>
-    <t>CELL_0063</t>
-  </si>
-  <si>
-    <t>CELL_0064</t>
-  </si>
-  <si>
-    <t>CELL_0065</t>
-  </si>
-  <si>
-    <t>CELL_0066</t>
-  </si>
-  <si>
-    <t>CELL_0067</t>
-  </si>
-  <si>
-    <t>CELL_0068</t>
-  </si>
-  <si>
-    <t>CELL_0069</t>
-  </si>
-  <si>
-    <t>CELL_0070</t>
-  </si>
-  <si>
-    <t>CELL_0071</t>
-  </si>
-  <si>
-    <t>CELL_0072</t>
-  </si>
-  <si>
-    <t>CELL_0073</t>
-  </si>
-  <si>
-    <t>CELL_0074</t>
-  </si>
-  <si>
-    <t>CELL_0075</t>
-  </si>
-  <si>
-    <t>CELL_0076</t>
-  </si>
-  <si>
-    <t>CELL_0077</t>
-  </si>
-  <si>
-    <t>CELL_0078</t>
-  </si>
-  <si>
-    <t>CELL_0079</t>
-  </si>
-  <si>
-    <t>CELL_0080</t>
-  </si>
-  <si>
-    <t>CELL_0081</t>
-  </si>
-  <si>
-    <t>CELL_0082</t>
-  </si>
-  <si>
-    <t>CELL_0083</t>
-  </si>
-  <si>
-    <t>CELL_0084</t>
-  </si>
-  <si>
-    <t>CELL_0085</t>
-  </si>
-  <si>
-    <t>CELL_0086</t>
-  </si>
-  <si>
-    <t>CELL_0087</t>
-  </si>
-  <si>
-    <t>CELL_0088</t>
-  </si>
-  <si>
-    <t>CELL_0089</t>
-  </si>
-  <si>
-    <t>CELL_0090</t>
-  </si>
-  <si>
-    <t>CELL_0091</t>
-  </si>
-  <si>
-    <t>CELL_0092</t>
-  </si>
-  <si>
-    <t>CELL_0093</t>
-  </si>
-  <si>
-    <t>CELL_0094</t>
-  </si>
-  <si>
-    <t>CELL_0095</t>
-  </si>
-  <si>
-    <t>CELL_0096</t>
-  </si>
-  <si>
-    <t>CELL_0097</t>
-  </si>
-  <si>
-    <t>CELL_0098</t>
-  </si>
-  <si>
-    <t>CELL_0099</t>
-  </si>
-  <si>
-    <t>CELL_0100</t>
-  </si>
-  <si>
-    <t>CELL_0101</t>
-  </si>
-  <si>
-    <t>CELL_0102</t>
-  </si>
-  <si>
-    <t>CELL_0103</t>
-  </si>
-  <si>
-    <t>CELL_0104</t>
-  </si>
-  <si>
-    <t>CELL_0105</t>
-  </si>
-  <si>
-    <t>CELL_0106</t>
-  </si>
-  <si>
-    <t>CELL_0107</t>
-  </si>
-  <si>
-    <t>CELL_0108</t>
-  </si>
-  <si>
-    <t>CELL_0109</t>
-  </si>
-  <si>
-    <t>CELL_0110</t>
-  </si>
-  <si>
-    <t>CELL_0111</t>
-  </si>
-  <si>
-    <t>CELL_0112</t>
-  </si>
-  <si>
-    <t>CELL_0113</t>
-  </si>
-  <si>
-    <t>CELL_0114</t>
-  </si>
-  <si>
-    <t>CELL_0115</t>
-  </si>
-  <si>
-    <t>CELL_0116</t>
-  </si>
-  <si>
-    <t>CELL_0117</t>
-  </si>
-  <si>
-    <t>CELL_0118</t>
-  </si>
-  <si>
-    <t>CELL_0119</t>
-  </si>
-  <si>
-    <t>CELL_0120</t>
-  </si>
-  <si>
-    <t>CELL_0121</t>
-  </si>
-  <si>
-    <t>CELL_0122</t>
-  </si>
-  <si>
-    <t>CELL_0123</t>
-  </si>
-  <si>
-    <t>CELL_0124</t>
-  </si>
-  <si>
-    <t>CELL_0125</t>
-  </si>
-  <si>
-    <t>CELL_0126</t>
-  </si>
-  <si>
-    <t>CELL_0127</t>
-  </si>
-  <si>
-    <t>CELL_0128</t>
-  </si>
-  <si>
-    <t>CELL_0129</t>
-  </si>
-  <si>
-    <t>CELL_0130</t>
-  </si>
-  <si>
-    <t>CELL_0131</t>
-  </si>
-  <si>
-    <t>CELL_0132</t>
-  </si>
-  <si>
-    <t>CELL_0133</t>
-  </si>
-  <si>
-    <t>CELL_0134</t>
-  </si>
-  <si>
-    <t>CELL_0135</t>
-  </si>
-  <si>
-    <t>CELL_0136</t>
-  </si>
-  <si>
-    <t>CELL_0137</t>
-  </si>
-  <si>
-    <t>CELL_0138</t>
-  </si>
-  <si>
-    <t>CELL_0139</t>
-  </si>
-  <si>
-    <t>CELL_0140</t>
-  </si>
-  <si>
-    <t>CELL_0141</t>
-  </si>
-  <si>
-    <t>CELL_0142</t>
-  </si>
-  <si>
-    <t>CELL_0143</t>
-  </si>
-  <si>
-    <t>CELL_0144</t>
-  </si>
-  <si>
-    <t>CELL_0145</t>
-  </si>
-  <si>
-    <t>CELL_0146</t>
-  </si>
-  <si>
-    <t>CELL_0147</t>
-  </si>
-  <si>
-    <t>CELL_0148</t>
-  </si>
-  <si>
-    <t>CELL_0149</t>
-  </si>
-  <si>
-    <t>CELL_0150</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Suburban</t>
-  </si>
-  <si>
-    <t>Satisfied</t>
-  </si>
-  <si>
-    <t>Dissatisfied</t>
-  </si>
-  <si>
-    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1033,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1041,19 +1041,19 @@
         <v>2025</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" s="2">
         <v>32203</v>
@@ -1098,7 +1098,7 @@
         <v>44433</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1106,19 +1106,19 @@
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="2">
         <v>42818</v>
@@ -1163,7 +1163,7 @@
         <v>8279</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1171,19 +1171,19 @@
         <v>2025</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2">
         <v>5137</v>
@@ -1228,7 +1228,7 @@
         <v>48881</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1236,19 +1236,19 @@
         <v>2025</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2">
         <v>5354</v>
@@ -1293,7 +1293,7 @@
         <v>16943</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1301,19 +1301,19 @@
         <v>2023</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="2">
         <v>43588</v>
@@ -1358,7 +1358,7 @@
         <v>24052</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1366,19 +1366,19 @@
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="2">
         <v>38160</v>
@@ -1423,7 +1423,7 @@
         <v>33260</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1431,19 +1431,19 @@
         <v>2025</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="2">
         <v>40311</v>
@@ -1488,7 +1488,7 @@
         <v>44998</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1496,19 +1496,19 @@
         <v>2024</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="2">
         <v>49789</v>
@@ -1553,7 +1553,7 @@
         <v>29616</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1561,19 +1561,19 @@
         <v>2025</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="2">
         <v>20356</v>
@@ -1618,7 +1618,7 @@
         <v>10549</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1626,19 +1626,19 @@
         <v>2025</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2">
         <v>22333</v>
@@ -1683,7 +1683,7 @@
         <v>21225</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1691,19 +1691,19 @@
         <v>2025</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="2">
         <v>20463</v>
@@ -1748,7 +1748,7 @@
         <v>7518</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1756,19 +1756,19 @@
         <v>2025</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2">
         <v>37432</v>
@@ -1813,7 +1813,7 @@
         <v>22846</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1821,19 +1821,19 @@
         <v>2023</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="2">
         <v>27669</v>
@@ -1878,7 +1878,7 @@
         <v>2554</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1886,19 +1886,19 @@
         <v>2025</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2">
         <v>8441</v>
@@ -1943,7 +1943,7 @@
         <v>17861</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1951,19 +1951,19 @@
         <v>2024</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2">
         <v>14888</v>
@@ -2008,7 +2008,7 @@
         <v>15323</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2016,19 +2016,19 @@
         <v>2023</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="2">
         <v>6069</v>
@@ -2073,7 +2073,7 @@
         <v>6801</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2081,19 +2081,19 @@
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="2">
         <v>4800</v>
@@ -2138,7 +2138,7 @@
         <v>2697</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2146,19 +2146,19 @@
         <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G19" s="2">
         <v>39537</v>
@@ -2203,7 +2203,7 @@
         <v>241</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2211,19 +2211,19 @@
         <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="2">
         <v>37086</v>
@@ -2268,7 +2268,7 @@
         <v>2759</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2276,19 +2276,19 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="2">
         <v>12515</v>
@@ -2333,7 +2333,7 @@
         <v>21080</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2341,19 +2341,19 @@
         <v>2023</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G22" s="2">
         <v>45502</v>
@@ -2398,7 +2398,7 @@
         <v>9131</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2406,19 +2406,19 @@
         <v>2023</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="2">
         <v>6754</v>
@@ -2463,7 +2463,7 @@
         <v>15137</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2471,19 +2471,19 @@
         <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="2">
         <v>17644</v>
@@ -2528,7 +2528,7 @@
         <v>46838</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2536,19 +2536,19 @@
         <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="2">
         <v>24714</v>
@@ -2593,7 +2593,7 @@
         <v>38529</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2601,19 +2601,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26" s="2">
         <v>40618</v>
@@ -2658,7 +2658,7 @@
         <v>6242</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2666,19 +2666,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="2">
         <v>15683</v>
@@ -2723,7 +2723,7 @@
         <v>12209</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2731,19 +2731,19 @@
         <v>2023</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G28" s="2">
         <v>6738</v>
@@ -2788,7 +2788,7 @@
         <v>22110</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2796,19 +2796,19 @@
         <v>2025</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="2">
         <v>6590</v>
@@ -2853,7 +2853,7 @@
         <v>8887</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2861,19 +2861,19 @@
         <v>2025</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G30" s="2">
         <v>12137</v>
@@ -2918,7 +2918,7 @@
         <v>42964</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2926,19 +2926,19 @@
         <v>2025</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="2">
         <v>22915</v>
@@ -2983,7 +2983,7 @@
         <v>8572</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2991,19 +2991,19 @@
         <v>2024</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="2">
         <v>24571</v>
@@ -3048,7 +3048,7 @@
         <v>49675</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3056,19 +3056,19 @@
         <v>2025</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="2">
         <v>45915</v>
@@ -3113,7 +3113,7 @@
         <v>23483</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3121,19 +3121,19 @@
         <v>2024</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G34" s="2">
         <v>43179</v>
@@ -3178,7 +3178,7 @@
         <v>4349</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3186,19 +3186,19 @@
         <v>2024</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G35" s="2">
         <v>41740</v>
@@ -3243,7 +3243,7 @@
         <v>47817</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3251,19 +3251,19 @@
         <v>2025</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="2">
         <v>18771</v>
@@ -3308,7 +3308,7 @@
         <v>34618</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3316,19 +3316,19 @@
         <v>2024</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G37" s="2">
         <v>36534</v>
@@ -3373,7 +3373,7 @@
         <v>18451</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3381,19 +3381,19 @@
         <v>2025</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G38" s="2">
         <v>33934</v>
@@ -3438,7 +3438,7 @@
         <v>4188</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3446,19 +3446,19 @@
         <v>2025</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G39" s="2">
         <v>4688</v>
@@ -3503,7 +3503,7 @@
         <v>15382</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3511,19 +3511,19 @@
         <v>2023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="2">
         <v>10661</v>
@@ -3568,7 +3568,7 @@
         <v>19430</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3576,19 +3576,19 @@
         <v>2025</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="2">
         <v>29232</v>
@@ -3633,7 +3633,7 @@
         <v>42509</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3641,19 +3641,19 @@
         <v>2023</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" s="2">
         <v>11814</v>
@@ -3698,7 +3698,7 @@
         <v>21878</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3706,19 +3706,19 @@
         <v>2025</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="2">
         <v>24454</v>
@@ -3763,7 +3763,7 @@
         <v>24364</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3771,19 +3771,19 @@
         <v>2025</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G44" s="2">
         <v>22008</v>
@@ -3828,7 +3828,7 @@
         <v>5175</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3836,19 +3836,19 @@
         <v>2023</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G45" s="2">
         <v>22469</v>
@@ -3893,7 +3893,7 @@
         <v>10512</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3901,19 +3901,19 @@
         <v>2023</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="2">
         <v>46159</v>
@@ -3958,7 +3958,7 @@
         <v>48554</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3966,19 +3966,19 @@
         <v>2025</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G47" s="2">
         <v>38045</v>
@@ -4023,7 +4023,7 @@
         <v>28465</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4031,19 +4031,19 @@
         <v>2024</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="2">
         <v>37168</v>
@@ -4088,7 +4088,7 @@
         <v>7330</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4096,19 +4096,19 @@
         <v>2023</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="2">
         <v>23561</v>
@@ -4153,7 +4153,7 @@
         <v>48300</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4161,19 +4161,19 @@
         <v>2024</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G50" s="2">
         <v>14216</v>
@@ -4218,7 +4218,7 @@
         <v>11102</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4226,19 +4226,19 @@
         <v>2024</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G51" s="2">
         <v>40249</v>
@@ -4283,7 +4283,7 @@
         <v>14047</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4291,19 +4291,19 @@
         <v>2024</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G52" s="2">
         <v>39644</v>
@@ -4348,7 +4348,7 @@
         <v>13786</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4356,19 +4356,19 @@
         <v>2023</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G53" s="2">
         <v>17407</v>
@@ -4413,7 +4413,7 @@
         <v>29404</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4421,19 +4421,19 @@
         <v>2024</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="2">
         <v>19277</v>
@@ -4478,7 +4478,7 @@
         <v>13174</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4486,19 +4486,19 @@
         <v>2023</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="2">
         <v>28193</v>
@@ -4543,7 +4543,7 @@
         <v>4593</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4551,19 +4551,19 @@
         <v>2024</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G56" s="2">
         <v>43428</v>
@@ -4608,7 +4608,7 @@
         <v>34328</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4616,19 +4616,19 @@
         <v>2025</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G57" s="2">
         <v>26829</v>
@@ -4673,7 +4673,7 @@
         <v>14240</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4681,19 +4681,19 @@
         <v>2025</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G58" s="2">
         <v>47392</v>
@@ -4738,7 +4738,7 @@
         <v>31755</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4746,19 +4746,19 @@
         <v>2023</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G59" s="2">
         <v>16782</v>
@@ -4803,7 +4803,7 @@
         <v>43572</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4811,19 +4811,19 @@
         <v>2025</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" s="2">
         <v>24124</v>
@@ -4868,7 +4868,7 @@
         <v>49537</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4876,19 +4876,19 @@
         <v>2025</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G61" s="2">
         <v>23821</v>
@@ -4933,7 +4933,7 @@
         <v>49516</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4941,19 +4941,19 @@
         <v>2024</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G62" s="2">
         <v>10988</v>
@@ -4998,7 +4998,7 @@
         <v>6916</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5006,19 +5006,19 @@
         <v>2023</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G63" s="2">
         <v>23074</v>
@@ -5063,7 +5063,7 @@
         <v>11739</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5071,19 +5071,19 @@
         <v>2024</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G64" s="2">
         <v>5740</v>
@@ -5128,7 +5128,7 @@
         <v>47292</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5136,19 +5136,19 @@
         <v>2024</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G65" s="2">
         <v>43721</v>
@@ -5193,7 +5193,7 @@
         <v>46833</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5201,19 +5201,19 @@
         <v>2024</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G66" s="2">
         <v>10978</v>
@@ -5258,7 +5258,7 @@
         <v>29592</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5266,19 +5266,19 @@
         <v>2024</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G67" s="2">
         <v>45662</v>
@@ -5323,7 +5323,7 @@
         <v>11340</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5331,19 +5331,19 @@
         <v>2024</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G68" s="2">
         <v>19762</v>
@@ -5388,7 +5388,7 @@
         <v>32798</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5396,19 +5396,19 @@
         <v>2024</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G69" s="2">
         <v>4932</v>
@@ -5453,7 +5453,7 @@
         <v>27057</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5461,19 +5461,19 @@
         <v>2024</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G70" s="2">
         <v>30221</v>
@@ -5518,7 +5518,7 @@
         <v>32908</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5526,19 +5526,19 @@
         <v>2023</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" s="2">
         <v>14068</v>
@@ -5583,7 +5583,7 @@
         <v>5927</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5591,19 +5591,19 @@
         <v>2025</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G72" s="2">
         <v>14678</v>
@@ -5648,7 +5648,7 @@
         <v>32862</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5656,19 +5656,19 @@
         <v>2024</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G73" s="2">
         <v>22695</v>
@@ -5713,7 +5713,7 @@
         <v>8359</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5721,19 +5721,19 @@
         <v>2024</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G74" s="2">
         <v>802</v>
@@ -5778,7 +5778,7 @@
         <v>14949</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5786,19 +5786,19 @@
         <v>2024</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G75" s="2">
         <v>17522</v>
@@ -5843,7 +5843,7 @@
         <v>16332</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5851,19 +5851,19 @@
         <v>2024</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G76" s="2">
         <v>555</v>
@@ -5908,7 +5908,7 @@
         <v>40672</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5916,19 +5916,19 @@
         <v>2024</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G77" s="2">
         <v>46281</v>
@@ -5973,7 +5973,7 @@
         <v>24273</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -5981,19 +5981,19 @@
         <v>2024</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G78" s="2">
         <v>9217</v>
@@ -6038,7 +6038,7 @@
         <v>5474</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6046,19 +6046,19 @@
         <v>2025</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G79" s="2">
         <v>29199</v>
@@ -6103,7 +6103,7 @@
         <v>21274</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6111,19 +6111,19 @@
         <v>2025</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G80" s="2">
         <v>8650</v>
@@ -6168,7 +6168,7 @@
         <v>23667</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6176,19 +6176,19 @@
         <v>2024</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G81" s="2">
         <v>2625</v>
@@ -6233,7 +6233,7 @@
         <v>35392</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6241,19 +6241,19 @@
         <v>2025</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G82" s="2">
         <v>44747</v>
@@ -6298,7 +6298,7 @@
         <v>9377</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6306,19 +6306,19 @@
         <v>2023</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G83" s="2">
         <v>49013</v>
@@ -6363,7 +6363,7 @@
         <v>31700</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6371,19 +6371,19 @@
         <v>2024</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G84" s="2">
         <v>17248</v>
@@ -6428,7 +6428,7 @@
         <v>9985</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6436,19 +6436,19 @@
         <v>2023</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G85" s="2">
         <v>40077</v>
@@ -6493,7 +6493,7 @@
         <v>878</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6501,19 +6501,19 @@
         <v>2023</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G86" s="2">
         <v>5121</v>
@@ -6558,7 +6558,7 @@
         <v>29265</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6566,19 +6566,19 @@
         <v>2024</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G87" s="2">
         <v>15534</v>
@@ -6623,7 +6623,7 @@
         <v>1592</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6631,19 +6631,19 @@
         <v>2025</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G88" s="2">
         <v>46891</v>
@@ -6688,7 +6688,7 @@
         <v>30562</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6696,19 +6696,19 @@
         <v>2023</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G89" s="2">
         <v>5626</v>
@@ -6753,7 +6753,7 @@
         <v>49912</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6761,19 +6761,19 @@
         <v>2024</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G90" s="2">
         <v>5622</v>
@@ -6818,7 +6818,7 @@
         <v>13715</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6826,19 +6826,19 @@
         <v>2023</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G91" s="2">
         <v>18530</v>
@@ -6883,7 +6883,7 @@
         <v>45000</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6891,19 +6891,19 @@
         <v>2023</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G92" s="2">
         <v>17802</v>
@@ -6948,7 +6948,7 @@
         <v>43046</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -6956,19 +6956,19 @@
         <v>2023</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G93" s="2">
         <v>19681</v>
@@ -7013,7 +7013,7 @@
         <v>7951</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7021,19 +7021,19 @@
         <v>2023</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G94" s="2">
         <v>39138</v>
@@ -7078,7 +7078,7 @@
         <v>16388</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7086,19 +7086,19 @@
         <v>2025</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G95" s="2">
         <v>2031</v>
@@ -7143,7 +7143,7 @@
         <v>7256</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7151,19 +7151,19 @@
         <v>2023</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G96" s="2">
         <v>41440</v>
@@ -7208,7 +7208,7 @@
         <v>2144</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7216,19 +7216,19 @@
         <v>2023</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G97" s="2">
         <v>40941</v>
@@ -7273,7 +7273,7 @@
         <v>7468</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7281,19 +7281,19 @@
         <v>2023</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G98" s="2">
         <v>23833</v>
@@ -7338,7 +7338,7 @@
         <v>20000</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7346,19 +7346,19 @@
         <v>2025</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G99" s="2">
         <v>40150</v>
@@ -7403,7 +7403,7 @@
         <v>30700</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7411,19 +7411,19 @@
         <v>2023</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G100" s="2">
         <v>35174</v>
@@ -7468,7 +7468,7 @@
         <v>46503</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7476,19 +7476,19 @@
         <v>2023</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G101" s="2">
         <v>36354</v>
@@ -7533,7 +7533,7 @@
         <v>25734</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7541,19 +7541,19 @@
         <v>2025</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G102" s="2">
         <v>46771</v>
@@ -7598,7 +7598,7 @@
         <v>9268</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7606,19 +7606,19 @@
         <v>2025</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G103" s="2">
         <v>8652</v>
@@ -7663,7 +7663,7 @@
         <v>21061</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7671,19 +7671,19 @@
         <v>2025</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G104" s="2">
         <v>39018</v>
@@ -7728,7 +7728,7 @@
         <v>49979</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7736,19 +7736,19 @@
         <v>2023</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G105" s="2">
         <v>46040</v>
@@ -7793,7 +7793,7 @@
         <v>44196</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7801,19 +7801,19 @@
         <v>2025</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G106" s="2">
         <v>10767</v>
@@ -7858,7 +7858,7 @@
         <v>46187</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7866,19 +7866,19 @@
         <v>2025</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G107" s="2">
         <v>25789</v>
@@ -7923,7 +7923,7 @@
         <v>23952</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7931,19 +7931,19 @@
         <v>2023</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G108" s="2">
         <v>1562</v>
@@ -7988,7 +7988,7 @@
         <v>33210</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7996,19 +7996,19 @@
         <v>2025</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G109" s="2">
         <v>30426</v>
@@ -8053,7 +8053,7 @@
         <v>32274</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8061,19 +8061,19 @@
         <v>2023</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G110" s="2">
         <v>6729</v>
@@ -8118,7 +8118,7 @@
         <v>34315</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8126,19 +8126,19 @@
         <v>2024</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G111" s="2">
         <v>49777</v>
@@ -8183,7 +8183,7 @@
         <v>27055</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8191,19 +8191,19 @@
         <v>2025</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G112" s="2">
         <v>48415</v>
@@ -8248,7 +8248,7 @@
         <v>6681</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8256,19 +8256,19 @@
         <v>2024</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G113" s="2">
         <v>5132</v>
@@ -8313,7 +8313,7 @@
         <v>44719</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8321,19 +8321,19 @@
         <v>2023</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G114" s="2">
         <v>39556</v>
@@ -8378,7 +8378,7 @@
         <v>6417</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8386,19 +8386,19 @@
         <v>2025</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G115" s="2">
         <v>4096</v>
@@ -8443,7 +8443,7 @@
         <v>49778</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8451,19 +8451,19 @@
         <v>2023</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G116" s="2">
         <v>44743</v>
@@ -8508,7 +8508,7 @@
         <v>42956</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8516,19 +8516,19 @@
         <v>2024</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G117" s="2">
         <v>6668</v>
@@ -8573,7 +8573,7 @@
         <v>45814</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8581,19 +8581,19 @@
         <v>2023</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G118" s="2">
         <v>43063</v>
@@ -8638,7 +8638,7 @@
         <v>26749</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8646,19 +8646,19 @@
         <v>2025</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="2">
         <v>8061</v>
@@ -8703,7 +8703,7 @@
         <v>23232</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8711,19 +8711,19 @@
         <v>2025</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G120" s="2">
         <v>8758</v>
@@ -8768,7 +8768,7 @@
         <v>16889</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8776,19 +8776,19 @@
         <v>2024</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G121" s="2">
         <v>17116</v>
@@ -8833,7 +8833,7 @@
         <v>14667</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8841,19 +8841,19 @@
         <v>2023</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G122" s="2">
         <v>27234</v>
@@ -8898,7 +8898,7 @@
         <v>14968</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8906,19 +8906,19 @@
         <v>2025</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G123" s="2">
         <v>6871</v>
@@ -8963,7 +8963,7 @@
         <v>24470</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -8971,19 +8971,19 @@
         <v>2024</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G124" s="2">
         <v>26569</v>
@@ -9028,7 +9028,7 @@
         <v>42633</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9036,19 +9036,19 @@
         <v>2025</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G125" s="2">
         <v>14869</v>
@@ -9093,7 +9093,7 @@
         <v>30583</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9101,19 +9101,19 @@
         <v>2025</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G126" s="2">
         <v>13410</v>
@@ -9158,7 +9158,7 @@
         <v>12566</v>
       </c>
       <c r="U126" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9166,19 +9166,19 @@
         <v>2023</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G127" s="2">
         <v>8443</v>
@@ -9223,7 +9223,7 @@
         <v>28903</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9231,19 +9231,19 @@
         <v>2025</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G128" s="2">
         <v>12699</v>
@@ -9288,7 +9288,7 @@
         <v>18330</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9296,19 +9296,19 @@
         <v>2023</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G129" s="2">
         <v>16228</v>
@@ -9353,7 +9353,7 @@
         <v>17962</v>
       </c>
       <c r="U129" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9361,19 +9361,19 @@
         <v>2025</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G130" s="2">
         <v>23775</v>
@@ -9418,7 +9418,7 @@
         <v>43455</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9426,19 +9426,19 @@
         <v>2024</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G131" s="2">
         <v>7238</v>
@@ -9483,7 +9483,7 @@
         <v>31359</v>
       </c>
       <c r="U131" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9491,19 +9491,19 @@
         <v>2025</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G132" s="2">
         <v>16413</v>
@@ -9548,7 +9548,7 @@
         <v>33639</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9556,19 +9556,19 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G133" s="2">
         <v>35740</v>
@@ -9613,7 +9613,7 @@
         <v>22009</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9621,19 +9621,19 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G134" s="2">
         <v>19623</v>
@@ -9678,7 +9678,7 @@
         <v>30895</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9686,19 +9686,19 @@
         <v>2024</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="2">
         <v>48947</v>
@@ -9743,7 +9743,7 @@
         <v>49168</v>
       </c>
       <c r="U135" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9751,19 +9751,19 @@
         <v>2025</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G136" s="2">
         <v>35029</v>
@@ -9808,7 +9808,7 @@
         <v>8870</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9816,19 +9816,19 @@
         <v>2025</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G137" s="2">
         <v>10667</v>
@@ -9873,7 +9873,7 @@
         <v>11193</v>
       </c>
       <c r="U137" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9881,19 +9881,19 @@
         <v>2024</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G138" s="2">
         <v>11054</v>
@@ -9938,7 +9938,7 @@
         <v>46671</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -9946,19 +9946,19 @@
         <v>2025</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G139" s="2">
         <v>17760</v>
@@ -10003,7 +10003,7 @@
         <v>293</v>
       </c>
       <c r="U139" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10011,19 +10011,19 @@
         <v>2025</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G140" s="2">
         <v>47545</v>
@@ -10068,7 +10068,7 @@
         <v>34875</v>
       </c>
       <c r="U140" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10076,19 +10076,19 @@
         <v>2023</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G141" s="2">
         <v>4312</v>
@@ -10133,7 +10133,7 @@
         <v>17669</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10141,19 +10141,19 @@
         <v>2025</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D142" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G142" s="2">
         <v>28524</v>
@@ -10198,7 +10198,7 @@
         <v>11290</v>
       </c>
       <c r="U142" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10206,19 +10206,19 @@
         <v>2025</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G143" s="2">
         <v>27785</v>
@@ -10263,7 +10263,7 @@
         <v>42852</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10271,19 +10271,19 @@
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G144" s="2">
         <v>27400</v>
@@ -10328,7 +10328,7 @@
         <v>32427</v>
       </c>
       <c r="U144" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10336,19 +10336,19 @@
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G145" s="2">
         <v>2105</v>
@@ -10393,7 +10393,7 @@
         <v>42170</v>
       </c>
       <c r="U145" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10401,19 +10401,19 @@
         <v>2023</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G146" s="2">
         <v>6122</v>
@@ -10458,7 +10458,7 @@
         <v>20489</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10466,19 +10466,19 @@
         <v>2025</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G147" s="2">
         <v>7267</v>
@@ -10523,7 +10523,7 @@
         <v>40297</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10531,19 +10531,19 @@
         <v>2025</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G148" s="2">
         <v>27639</v>
@@ -10588,7 +10588,7 @@
         <v>2361</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10596,19 +10596,19 @@
         <v>2025</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G149" s="2">
         <v>12113</v>
@@ -10653,7 +10653,7 @@
         <v>28469</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10661,19 +10661,19 @@
         <v>2023</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G150" s="2">
         <v>11089</v>
@@ -10718,7 +10718,7 @@
         <v>26612</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -10726,19 +10726,19 @@
         <v>2023</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G151" s="2">
         <v>14418</v>
@@ -10783,10 +10783,11 @@
         <v>6816</v>
       </c>
       <c r="U151" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>